--- a/biology/Botanique/Juglans_jamaicensis/Juglans_jamaicensis.xlsx
+++ b/biology/Botanique/Juglans_jamaicensis/Juglans_jamaicensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">« »
 Juglans jamaicensis, le « noyer antillais », « nogal », ou « palo de nuez » , est une espèce de noyer de la famille des Juglandaceae originaire des Grandes Antilles.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve à Cuba, Hispaniola (la République dominicaine et Haïti) et à Porto Rico. En fait, il n'est pas originaire de Jamaïque, comme son nom l'indique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve à Cuba, Hispaniola (la République dominicaine et Haïti) et à Porto Rico. En fait, il n'est pas originaire de Jamaïque, comme son nom l'indique.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Descriptif</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un grand arbre qui peut atteindre 25 m de hauteur. Les feuilles composées sont chacune constituées de plusieurs folioles dentées en forme de lance atteignant 9 cm de long. Les arbres portent des inflorescences mâles et femelles. L'inflorescence mâle, un chaton, atteint 11 cm de long et la femelle un ensemble de fleurs à l'extrémité d'une pousse nouvellement développée. Le fruit est une drupe d'environ 2 à 3 cm de long avec une enveloppe noire et une graine, qui est formée d'une chair de noix comestible à l'intérieur[2]. Le bois attrayant est similaire à celui du noyer noir (« Juglans nigra »)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un grand arbre qui peut atteindre 25 m de hauteur. Les feuilles composées sont chacune constituées de plusieurs folioles dentées en forme de lance atteignant 9 cm de long. Les arbres portent des inflorescences mâles et femelles. L'inflorescence mâle, un chaton, atteint 11 cm de long et la femelle un ensemble de fleurs à l'extrémité d'une pousse nouvellement développée. Le fruit est une drupe d'environ 2 à 3 cm de long avec une enveloppe noire et une graine, qui est formée d'une chair de noix comestible à l'intérieur. Le bois attrayant est similaire à celui du noyer noir (« Juglans nigra »).
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À Porto Rico, il ne reste que dix[1] à quatorze[2] arbres de cette espèce. Il est également rare à Cuba et à Hispaniola[1]. Il est menacé par la perte d'habitat. Il n'a peut-être jamais été commun, mais des spécimens ont probablement été perdus lors du défrichement de la forêt pour les plantations de café à Porto Rico, et ils ont probablement été récoltés pour le bois[2].
-Cet arbre est protégé par l'Endangered Species Act des États-Unis, où il est répertorié comme une espèce menacée[2],[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À Porto Rico, il ne reste que dix à quatorze arbres de cette espèce. Il est également rare à Cuba et à Hispaniola. Il est menacé par la perte d'habitat. Il n'a peut-être jamais été commun, mais des spécimens ont probablement été perdus lors du défrichement de la forêt pour les plantations de café à Porto Rico, et ils ont probablement été récoltés pour le bois.
+Cet arbre est protégé par l'Endangered Species Act des États-Unis, où il est répertorié comme une espèce menacée,.
 </t>
         </is>
       </c>
